--- a/Assets/Dialogs/dlgTest.xlsx
+++ b/Assets/Dialogs/dlgTest.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
